--- a/dados/Campanha Captação.xlsx
+++ b/dados/Campanha Captação.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRUNO.SILVA\Downloads\App campanha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRUNO.SILVA\Downloads\App campanha\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE42D47B-00D4-4D0F-85C6-AA4F8E673E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432B77C8-6826-4E66-806B-BF2735DB0535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{65BC80B7-CA5D-453E-A132-5DB34208399A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4564" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4564" uniqueCount="806">
   <si>
     <t>Corretora</t>
   </si>
@@ -2322,9 +2322,6 @@
   </si>
   <si>
     <t>BPS203748</t>
-  </si>
-  <si>
-    <t>Vcinvest</t>
   </si>
   <si>
     <t>Alexandre de Almeida Marques e/ou Flavia de Moraes Arantes</t>
@@ -3206,7 +3203,7 @@
   <dimension ref="A1:K866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25240,7 +25237,7 @@
       <c r="C635" s="13">
         <v>4612043</v>
       </c>
-      <c r="D635" s="44" t="s">
+      <c r="D635" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E635" s="44" t="s">
@@ -26072,7 +26069,7 @@
       <c r="C659" s="5">
         <v>2738150</v>
       </c>
-      <c r="D659" s="24" t="s">
+      <c r="D659" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E659" s="5" t="s">
@@ -32409,8 +32406,8 @@
       <c r="C842" s="61" t="s">
         <v>760</v>
       </c>
-      <c r="D842" s="14" t="s">
-        <v>761</v>
+      <c r="D842" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E842" s="14" t="s">
         <v>21</v>
@@ -32439,13 +32436,13 @@
         <v>759</v>
       </c>
       <c r="B843" s="62" t="s">
+        <v>761</v>
+      </c>
+      <c r="C843" s="63" t="s">
         <v>762</v>
       </c>
-      <c r="C843" s="63" t="s">
-        <v>763</v>
-      </c>
-      <c r="D843" s="14" t="s">
-        <v>761</v>
+      <c r="D843" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E843" s="14" t="s">
         <v>21</v>
@@ -32464,10 +32461,10 @@
         <v>759</v>
       </c>
       <c r="B844" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C844" s="5" t="s">
         <v>764</v>
-      </c>
-      <c r="C844" s="5" t="s">
-        <v>765</v>
       </c>
       <c r="D844" s="14" t="s">
         <v>20</v>
@@ -32499,10 +32496,10 @@
         <v>759</v>
       </c>
       <c r="B845" s="62" t="s">
+        <v>765</v>
+      </c>
+      <c r="C845" s="63" t="s">
         <v>766</v>
-      </c>
-      <c r="C845" s="63" t="s">
-        <v>767</v>
       </c>
       <c r="D845" s="14" t="s">
         <v>20</v>
@@ -32537,7 +32534,7 @@
         <v>150</v>
       </c>
       <c r="C846" s="65" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D846" s="14" t="s">
         <v>20</v>
@@ -32562,7 +32559,7 @@
         <v>631</v>
       </c>
       <c r="C847" s="68" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D847" s="14" t="s">
         <v>20</v>
@@ -32597,7 +32594,7 @@
         <v>189</v>
       </c>
       <c r="C848" s="68" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D848" s="14" t="s">
         <v>20</v>
@@ -32629,10 +32626,10 @@
         <v>759</v>
       </c>
       <c r="B849" s="67" t="s">
+        <v>770</v>
+      </c>
+      <c r="C849" s="68" t="s">
         <v>771</v>
-      </c>
-      <c r="C849" s="68" t="s">
-        <v>772</v>
       </c>
       <c r="D849" s="14" t="s">
         <v>20</v>
@@ -32657,7 +32654,7 @@
         <v>194</v>
       </c>
       <c r="C850" s="63" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D850" s="14" t="s">
         <v>20</v>
@@ -32689,10 +32686,10 @@
         <v>759</v>
       </c>
       <c r="B851" s="64" t="s">
+        <v>773</v>
+      </c>
+      <c r="C851" s="5" t="s">
         <v>774</v>
-      </c>
-      <c r="C851" s="5" t="s">
-        <v>775</v>
       </c>
       <c r="D851" s="14" t="s">
         <v>20</v>
@@ -32724,13 +32721,13 @@
         <v>759</v>
       </c>
       <c r="B852" s="62" t="s">
+        <v>775</v>
+      </c>
+      <c r="C852" s="69" t="s">
         <v>776</v>
       </c>
-      <c r="C852" s="69" t="s">
-        <v>777</v>
-      </c>
-      <c r="D852" s="14" t="s">
-        <v>761</v>
+      <c r="D852" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="E852" s="14" t="s">
         <v>21</v>
@@ -32759,10 +32756,10 @@
         <v>759</v>
       </c>
       <c r="B853" s="64" t="s">
+        <v>777</v>
+      </c>
+      <c r="C853" s="70" t="s">
         <v>778</v>
-      </c>
-      <c r="C853" s="70" t="s">
-        <v>779</v>
       </c>
       <c r="D853" s="14" t="s">
         <v>20</v>
@@ -32794,10 +32791,10 @@
         <v>759</v>
       </c>
       <c r="B854" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="C854" s="65" t="s">
         <v>780</v>
-      </c>
-      <c r="C854" s="65" t="s">
-        <v>781</v>
       </c>
       <c r="D854" s="14" t="s">
         <v>20</v>
@@ -32806,7 +32803,7 @@
         <v>137</v>
       </c>
       <c r="F854" s="14" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G854" s="66">
         <v>16134.05</v>
@@ -32832,7 +32829,7 @@
         <v>343</v>
       </c>
       <c r="C855" s="70" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D855" s="14" t="s">
         <v>20</v>
@@ -32858,10 +32855,10 @@
         <v>759</v>
       </c>
       <c r="B856" s="64" t="s">
+        <v>783</v>
+      </c>
+      <c r="C856" s="70" t="s">
         <v>784</v>
-      </c>
-      <c r="C856" s="70" t="s">
-        <v>785</v>
       </c>
       <c r="D856" s="14" t="s">
         <v>51</v>
@@ -32870,7 +32867,7 @@
         <v>21</v>
       </c>
       <c r="F856" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G856" s="66"/>
       <c r="H856" s="66"/>
@@ -32887,10 +32884,10 @@
         <v>759</v>
       </c>
       <c r="B857" s="62" t="s">
+        <v>786</v>
+      </c>
+      <c r="C857" s="61" t="s">
         <v>787</v>
-      </c>
-      <c r="C857" s="61" t="s">
-        <v>788</v>
       </c>
       <c r="D857" s="14" t="s">
         <v>20</v>
@@ -32922,10 +32919,10 @@
         <v>759</v>
       </c>
       <c r="B858" s="64" t="s">
+        <v>788</v>
+      </c>
+      <c r="C858" s="24" t="s">
         <v>789</v>
-      </c>
-      <c r="C858" s="24" t="s">
-        <v>790</v>
       </c>
       <c r="D858" s="14" t="s">
         <v>20</v>
@@ -32947,10 +32944,10 @@
         <v>759</v>
       </c>
       <c r="B859" s="62" t="s">
+        <v>790</v>
+      </c>
+      <c r="C859" s="61" t="s">
         <v>791</v>
-      </c>
-      <c r="C859" s="61" t="s">
-        <v>792</v>
       </c>
       <c r="D859" s="14" t="s">
         <v>20</v>
@@ -32982,10 +32979,10 @@
         <v>759</v>
       </c>
       <c r="B860" s="60" t="s">
+        <v>792</v>
+      </c>
+      <c r="C860" s="61" t="s">
         <v>793</v>
-      </c>
-      <c r="C860" s="61" t="s">
-        <v>794</v>
       </c>
       <c r="D860" s="14" t="s">
         <v>20</v>
@@ -33017,19 +33014,19 @@
         <v>759</v>
       </c>
       <c r="B861" s="60" t="s">
+        <v>794</v>
+      </c>
+      <c r="C861" s="61" t="s">
         <v>795</v>
       </c>
-      <c r="C861" s="61" t="s">
+      <c r="D861" s="14" t="s">
         <v>796</v>
-      </c>
-      <c r="D861" s="14" t="s">
-        <v>797</v>
       </c>
       <c r="E861" s="14" t="s">
         <v>118</v>
       </c>
       <c r="F861" s="32" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G861" s="59">
         <v>80340.39</v>
@@ -33055,7 +33052,7 @@
         <v>564</v>
       </c>
       <c r="C862" s="63" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D862" s="14" t="s">
         <v>20</v>
@@ -33084,13 +33081,13 @@
     </row>
     <row r="863" spans="1:11">
       <c r="A863" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B863" s="16" t="s">
         <v>160</v>
       </c>
       <c r="C863" s="24" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D863" s="14" t="s">
         <v>20</v>
@@ -33119,13 +33116,13 @@
     </row>
     <row r="864" spans="1:11">
       <c r="A864" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B864" s="64" t="s">
         <v>276</v>
       </c>
       <c r="C864" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D864" s="14" t="s">
         <v>20</v>
@@ -33154,13 +33151,13 @@
     </row>
     <row r="865" spans="1:11">
       <c r="A865" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B865" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C865" s="71" t="s">
         <v>803</v>
-      </c>
-      <c r="C865" s="71" t="s">
-        <v>804</v>
       </c>
       <c r="D865" s="14" t="s">
         <v>257</v>
@@ -33169,7 +33166,7 @@
         <v>14</v>
       </c>
       <c r="F865" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G865" s="66">
         <v>0</v>
@@ -33189,13 +33186,13 @@
     </row>
     <row r="866" spans="1:11">
       <c r="A866" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C866" s="71" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D866" s="14" t="s">
         <v>20</v>
@@ -33224,7 +33221,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K989" xr:uid="{73121E59-3896-423B-A6D4-88AA04C4094C}"/>
-  <conditionalFormatting sqref="E815:E866 E2:E737">
+  <conditionalFormatting sqref="E2:E737 E815:E866">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Conquest"</formula>
     </cfRule>
@@ -33239,13 +33236,13 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D863:D866" xr:uid="{63162FC0-551C-41B4-9FF1-4FB808C0BB8F}">
       <formula1>"Bluemetrix,Vcinvest,Nexco"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D841 D640:D737" xr:uid="{6A5D231E-B566-4115-9576-FADE5EAE7812}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D841 D642:D645 D647:D653 D655:D658 D660:D663 D665:D668 D670:D676 D678:D680 D682:D689 D691:D695 D697:D699 D701:D708 D710:D711 D713:D719 D721:D725 D727:D729 D731:D737" xr:uid="{6A5D231E-B566-4115-9576-FADE5EAE7812}">
       <formula1>"Bluemetrix,Voga,Conquest,VcInvest,MI Smart,Altum,Poupinvista,Solution For Life,Miura,Expert"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E841 E2:E737" xr:uid="{F39B2570-ABED-44A4-8455-549202B9E600}">
       <formula1>"DF,GO,SUL,SP,RJ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D842:D862" xr:uid="{F71C9748-C47B-4272-B33B-489DA77C73B5}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D844:D851 D853:D862" xr:uid="{F71C9748-C47B-4272-B33B-489DA77C73B5}">
       <formula1>"Bluemetrix,Vcinvest,Voga,Bullside,Bluemetrix (MI),Expert"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E842:E862" xr:uid="{628CE6A5-8E94-4F22-86A1-9AC855CDDE39}">
@@ -33266,7 +33263,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D738:D814" xr:uid="{CCC37560-827A-47EF-971E-E36215518929}">
       <formula1>"Bluemetrix,Blanchor,Conquest,Voga,Matrice,Miura"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D639" xr:uid="{AE28F127-2FA0-493C-9E38-854F40AA73EF}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D641 D646 D654 D659 D664 D669 D677 D681 D690 D696 D700 D709 D712 D720 D726 D730 D842:D843 D852" xr:uid="{AE28F127-2FA0-493C-9E38-854F40AA73EF}">
       <formula1>"Bluemetrix,Voga,Conquest,VcInvest,Miura,Altum,Poupinvista,Solution For Life,MI Smart,Expert,OP Club,Nexco"</formula1>
     </dataValidation>
   </dataValidations>
